--- a/Curso Edulive/Planilha-Modulo-2-1-1-2.xlsx
+++ b/Curso Edulive/Planilha-Modulo-2-1-1-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EXCEL\Curso Edulive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9383138-2AD2-484C-B9C5-554BDDEB3B9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA2EE31-D67D-49F9-AE32-F508A239C764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="527" xr2:uid="{5DF8F55A-8056-4556-AA27-D6E6576B59DA}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>Emissão dia da semana</t>
   </si>
   <si>
-    <t>FATURAS</t>
-  </si>
-  <si>
     <r>
       <t>ACADEMIA O</t>
     </r>
@@ -111,11 +108,18 @@
       <t>2</t>
     </r>
   </si>
+  <si>
+    <t>Faturas a receber</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="dddd"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,16 +162,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="0"/>
+      <vertAlign val="subscript"/>
+      <sz val="72"/>
+      <color theme="4" tint="0.39997558519241921"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <vertAlign val="subscript"/>
-      <sz val="72"/>
-      <color theme="4" tint="0.39997558519241921"/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -192,21 +196,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -239,37 +234,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,19 +645,20 @@
   <dimension ref="A1:I356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -614,21 +673,21 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="108.75" x14ac:dyDescent="1.8">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -639,409 +698,409 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>44265</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>44265</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="17">
         <v>1027</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="7">
         <v>44187.354166666664</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="21">
         <v>44187.354166666664</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>44285</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>44285</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="18">
         <v>1027</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>44197.4375</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="22">
         <v>44197.4375</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>44277</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>44277</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="18">
         <v>700</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>44189.583333333336</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="22">
         <v>44189.583333333336</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="13">
         <v>44316</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>44316</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="19">
         <v>580</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <v>44168.927083333336</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="23">
         <v>44168.927083333336</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>44299</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>44299</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="18">
         <v>802</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <v>44168.958333333336</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="22">
         <v>44168.958333333336</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>44278</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="10">
         <v>44278</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="18">
         <v>880.9</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>44168.020833333336</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="22">
         <v>44168.020833333336</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>44285</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="10">
         <v>44285</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="18">
         <v>680</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <v>44179.490972222222</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="22">
         <v>44179.490972222222</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="10">
         <v>44207</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="10">
         <v>44207</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="18">
         <v>200</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="10">
         <v>44186.763888888891</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="22">
         <v>44186.763888888891</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <v>44221</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="10">
         <v>44221</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="18">
         <v>405</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10">
         <v>44188.806944444441</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="22">
         <v>44188.806944444441</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="13">
         <v>44221</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="13">
         <v>44221</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="19">
         <v>538.91999999999996</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="13">
         <v>44185.3125</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="23">
         <v>44185.3125</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>44207</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="10">
         <v>44207</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="18">
         <v>567</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="10">
         <v>44184.169444444444</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="22">
         <v>44184.169444444444</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="15">
         <v>44214</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="15">
         <v>44214</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="20">
         <v>2193.34</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="15">
         <v>44193.135416666664</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="24">
         <v>44193.135416666664</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="15">
         <v>44261</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="15">
         <v>44261</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="20">
         <v>2193.33</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="15">
         <v>44171.135416666664</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="24">
         <v>44171.135416666664</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2063,6 +2122,10 @@
       <c r="D356"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Curso Edulive/Planilha-Modulo-2-1-1-2.xlsx
+++ b/Curso Edulive/Planilha-Modulo-2-1-1-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EXCEL\Curso Edulive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA2EE31-D67D-49F9-AE32-F508A239C764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0128EF-D06A-46E4-818D-ED198D5A3746}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="527" xr2:uid="{5DF8F55A-8056-4556-AA27-D6E6576B59DA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="base_de_dados" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_de_dados!$A$4:$I$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_de_dados!$A$4:$H$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>Nome</t>
   </si>
@@ -118,7 +118,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="dddd"/>
+    <numFmt numFmtId="165" formatCode="dddd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -279,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,20 +302,14 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,6 +322,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90870AF1-9442-49DE-9353-57E89E7F1D16}">
   <dimension ref="A1:I356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,22 +672,22 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="108.75" x14ac:dyDescent="1.8">
-      <c r="A2" s="16" t="s">
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="1.8">
+      <c r="A2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="25" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -696,36 +698,34 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>19</v>
       </c>
+      <c r="G4" s="25" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -740,19 +740,16 @@
       <c r="D5" s="7">
         <v>44265</v>
       </c>
-      <c r="E5" s="7">
-        <v>44265</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="E5" s="16">
         <v>1027</v>
       </c>
-      <c r="G5" s="7">
+      <c r="F5" s="7">
         <v>44187.354166666664</v>
       </c>
-      <c r="H5" s="21">
+      <c r="G5" s="20">
         <v>44187.354166666664</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -769,19 +766,16 @@
       <c r="D6" s="10">
         <v>44285</v>
       </c>
-      <c r="E6" s="10">
-        <v>44285</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="E6" s="17">
         <v>1027</v>
       </c>
-      <c r="G6" s="10">
+      <c r="F6" s="10">
         <v>44197.4375</v>
       </c>
-      <c r="H6" s="22">
+      <c r="G6" s="21">
         <v>44197.4375</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -798,19 +792,16 @@
       <c r="D7" s="10">
         <v>44277</v>
       </c>
-      <c r="E7" s="10">
-        <v>44277</v>
-      </c>
-      <c r="F7" s="18">
+      <c r="E7" s="17">
         <v>700</v>
       </c>
-      <c r="G7" s="10">
+      <c r="F7" s="10">
         <v>44189.583333333336</v>
       </c>
-      <c r="H7" s="22">
+      <c r="G7" s="21">
         <v>44189.583333333336</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -827,19 +818,16 @@
       <c r="D8" s="13">
         <v>44316</v>
       </c>
-      <c r="E8" s="13">
-        <v>44316</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="E8" s="18">
         <v>580</v>
       </c>
-      <c r="G8" s="13">
+      <c r="F8" s="13">
         <v>44168.927083333336</v>
       </c>
-      <c r="H8" s="23">
+      <c r="G8" s="22">
         <v>44168.927083333336</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -856,19 +844,16 @@
       <c r="D9" s="10">
         <v>44299</v>
       </c>
-      <c r="E9" s="10">
-        <v>44299</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="E9" s="17">
         <v>802</v>
       </c>
-      <c r="G9" s="10">
+      <c r="F9" s="10">
         <v>44168.958333333336</v>
       </c>
-      <c r="H9" s="22">
+      <c r="G9" s="21">
         <v>44168.958333333336</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -885,19 +870,16 @@
       <c r="D10" s="10">
         <v>44278</v>
       </c>
-      <c r="E10" s="10">
-        <v>44278</v>
-      </c>
-      <c r="F10" s="18">
+      <c r="E10" s="17">
         <v>880.9</v>
       </c>
-      <c r="G10" s="10">
+      <c r="F10" s="10">
         <v>44168.020833333336</v>
       </c>
-      <c r="H10" s="22">
+      <c r="G10" s="21">
         <v>44168.020833333336</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -914,19 +896,16 @@
       <c r="D11" s="10">
         <v>44285</v>
       </c>
-      <c r="E11" s="10">
-        <v>44285</v>
-      </c>
-      <c r="F11" s="18">
+      <c r="E11" s="17">
         <v>680</v>
       </c>
-      <c r="G11" s="10">
+      <c r="F11" s="10">
         <v>44179.490972222222</v>
       </c>
-      <c r="H11" s="22">
+      <c r="G11" s="21">
         <v>44179.490972222222</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -943,19 +922,16 @@
       <c r="D12" s="10">
         <v>44207</v>
       </c>
-      <c r="E12" s="10">
-        <v>44207</v>
-      </c>
-      <c r="F12" s="18">
+      <c r="E12" s="17">
         <v>200</v>
       </c>
-      <c r="G12" s="10">
+      <c r="F12" s="10">
         <v>44186.763888888891</v>
       </c>
-      <c r="H12" s="22">
+      <c r="G12" s="21">
         <v>44186.763888888891</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -972,19 +948,16 @@
       <c r="D13" s="10">
         <v>44221</v>
       </c>
-      <c r="E13" s="10">
-        <v>44221</v>
-      </c>
-      <c r="F13" s="18">
+      <c r="E13" s="17">
         <v>405</v>
       </c>
-      <c r="G13" s="10">
+      <c r="F13" s="10">
         <v>44188.806944444441</v>
       </c>
-      <c r="H13" s="22">
+      <c r="G13" s="21">
         <v>44188.806944444441</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1001,19 +974,16 @@
       <c r="D14" s="13">
         <v>44221</v>
       </c>
-      <c r="E14" s="13">
-        <v>44221</v>
-      </c>
-      <c r="F14" s="19">
+      <c r="E14" s="18">
         <v>538.91999999999996</v>
       </c>
-      <c r="G14" s="13">
+      <c r="F14" s="13">
         <v>44185.3125</v>
       </c>
-      <c r="H14" s="23">
+      <c r="G14" s="22">
         <v>44185.3125</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1030,19 +1000,16 @@
       <c r="D15" s="10">
         <v>44207</v>
       </c>
-      <c r="E15" s="10">
-        <v>44207</v>
-      </c>
-      <c r="F15" s="18">
+      <c r="E15" s="17">
         <v>567</v>
       </c>
-      <c r="G15" s="10">
+      <c r="F15" s="10">
         <v>44184.169444444444</v>
       </c>
-      <c r="H15" s="22">
+      <c r="G15" s="21">
         <v>44184.169444444444</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1059,23 +1026,20 @@
       <c r="D16" s="15">
         <v>44214</v>
       </c>
-      <c r="E16" s="15">
-        <v>44214</v>
-      </c>
-      <c r="F16" s="20">
+      <c r="E16" s="19">
         <v>2193.34</v>
       </c>
-      <c r="G16" s="15">
+      <c r="F16" s="15">
         <v>44193.135416666664</v>
       </c>
-      <c r="H16" s="24">
+      <c r="G16" s="23">
         <v>44193.135416666664</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="H16" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>16</v>
       </c>
@@ -1088,65 +1052,62 @@
       <c r="D17" s="15">
         <v>44261</v>
       </c>
-      <c r="E17" s="15">
-        <v>44261</v>
-      </c>
-      <c r="F17" s="20">
+      <c r="E17" s="19">
         <v>2193.33</v>
       </c>
-      <c r="G17" s="15">
+      <c r="F17" s="15">
         <v>44171.135416666664</v>
       </c>
-      <c r="H17" s="24">
+      <c r="G17" s="23">
         <v>44171.135416666664</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="H17" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D32"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
@@ -2124,7 +2085,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
